--- a/数据库设计 -数据抓取库(Mysql)SpiderDB.xlsx
+++ b/数据库设计 -数据抓取库(Mysql)SpiderDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MyProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonObj\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2939,7 +2939,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/数据库设计 -数据抓取库(Mysql)SpiderDB.xlsx
+++ b/数据库设计 -数据抓取库(Mysql)SpiderDB.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonObj\Spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12600" tabRatio="901" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,8 +14,10 @@
     <sheet name="Access_Token" sheetId="16" r:id="rId5"/>
     <sheet name="DeviceTaskInfo" sheetId="26" r:id="rId6"/>
     <sheet name="DeviceSoftwareInfo" sheetId="27" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="179">
   <si>
     <t>数据库项目定义书</t>
   </si>
@@ -883,12 +880,117 @@
     <t>Qiushibaike</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>美女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageTheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片Url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未下载
+1-已下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeautyGirls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDownload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房价数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型与面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheredes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EstateDevelopers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1360,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1394,7 +1502,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,6 +1789,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1719,6 +1839,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2000,7 +2123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2015,9 +2138,9 @@
       <selection activeCell="A18" sqref="A18:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2029,7 +2152,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2041,7 +2164,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2053,7 +2176,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25">
+    <row r="4" spans="1:10" ht="15.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2066,44 +2189,44 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2115,7 +2238,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25">
+    <row r="9" spans="1:10" ht="15.6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2127,7 +2250,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
+    <row r="10" spans="1:10" ht="15.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2139,7 +2262,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25">
+    <row r="11" spans="1:10" ht="15.6">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2151,7 +2274,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25">
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2163,7 +2286,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2175,7 +2298,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2187,7 +2310,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2199,7 +2322,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2211,7 +2334,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25">
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2224,82 +2347,82 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.5">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.6">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2312,32 +2435,32 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25">
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2349,7 +2472,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25">
+    <row r="28" spans="1:10" ht="15.6">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2361,7 +2484,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25">
+    <row r="29" spans="1:10" ht="15.6">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2373,7 +2496,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25">
+    <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2385,7 +2508,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25">
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2397,7 +2520,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25">
+    <row r="32" spans="1:10" ht="15.6">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2409,7 +2532,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25">
+    <row r="33" spans="1:10" ht="15.6">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2421,7 +2544,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25">
+    <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2433,7 +2556,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="14.25">
+    <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2445,7 +2568,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="14.25">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2457,7 +2580,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2469,7 +2592,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25">
+    <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2481,7 +2604,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2514,13 +2637,13 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="12"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2630,14 +2753,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="12"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2646,7 +2769,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="25"/>
       <c r="B2" s="24"/>
       <c r="C2" s="23"/>
@@ -2657,7 +2780,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
@@ -2685,7 +2808,7 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="106" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -2707,7 +2830,7 @@
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="38"/>
       <c r="D5" s="41"/>
       <c r="E5" s="46"/>
@@ -2719,7 +2842,7 @@
         <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
       <c r="E6" s="40"/>
@@ -2731,7 +2854,7 @@
         <f t="shared" ref="A7:A16" si="0">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="38"/>
       <c r="D7" s="27"/>
       <c r="E7" s="40"/>
@@ -2743,14 +2866,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="38"/>
       <c r="D8" s="29"/>
       <c r="E8" s="40"/>
       <c r="F8" s="42"/>
       <c r="G8" s="45"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="37">
@@ -2813,8 +2936,8 @@
       <c r="E13" s="87"/>
       <c r="F13" s="87"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
@@ -2827,8 +2950,8 @@
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="37">
@@ -2877,8 +3000,8 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="31"/>
@@ -2888,8 +3011,8 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="31"/>
@@ -2899,8 +3022,8 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="31"/>
@@ -2910,8 +3033,8 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2938,21 +3061,21 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -2971,7 +3094,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
@@ -2979,41 +3102,41 @@
         <v>27</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="15"/>
@@ -3032,7 +3155,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="27">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="70" t="s">
         <v>25</v>
       </c>
@@ -3051,7 +3174,7 @@
       <c r="N5" s="69"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5">
+    <row r="6" spans="1:15" ht="15.6">
       <c r="A6" s="72" t="s">
         <v>24</v>
       </c>
@@ -3218,7 +3341,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:15" ht="27">
+    <row r="11" spans="1:15" ht="28.8">
       <c r="A11" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3252,7 +3375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75">
+    <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="74"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -3269,7 +3392,7 @@
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75">
+    <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="74"/>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
@@ -3286,7 +3409,7 @@
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
     </row>
-    <row r="14" spans="1:15" ht="18.75">
+    <row r="14" spans="1:15" ht="17.399999999999999">
       <c r="A14" s="74"/>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
@@ -3303,7 +3426,7 @@
       <c r="N14" s="74"/>
       <c r="O14" s="74"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75">
+    <row r="15" spans="1:15" ht="17.399999999999999">
       <c r="A15" s="74"/>
       <c r="B15" s="74"/>
       <c r="C15" s="74"/>
@@ -3320,7 +3443,7 @@
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
     </row>
-    <row r="16" spans="1:15" ht="18.75">
+    <row r="16" spans="1:15" ht="17.399999999999999">
       <c r="A16" s="74"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -3337,7 +3460,7 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="1:15" ht="18.75">
+    <row r="17" spans="1:15" ht="17.399999999999999">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -3354,7 +3477,7 @@
       <c r="N17" s="74"/>
       <c r="O17" s="74"/>
     </row>
-    <row r="18" spans="1:15" ht="18.75">
+    <row r="18" spans="1:15" ht="17.399999999999999">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -3371,7 +3494,7 @@
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
     </row>
-    <row r="19" spans="1:15" ht="18.75">
+    <row r="19" spans="1:15" ht="17.399999999999999">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -3388,7 +3511,7 @@
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
     </row>
-    <row r="20" spans="1:15" ht="18.75">
+    <row r="20" spans="1:15" ht="17.399999999999999">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -3405,7 +3528,7 @@
       <c r="N20" s="74"/>
       <c r="O20" s="74"/>
     </row>
-    <row r="21" spans="1:15" ht="18.75">
+    <row r="21" spans="1:15" ht="17.399999999999999">
       <c r="A21" s="74"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -3422,7 +3545,7 @@
       <c r="N21" s="74"/>
       <c r="O21" s="74"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75">
+    <row r="22" spans="1:15" ht="17.399999999999999">
       <c r="A22" s="74"/>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
@@ -3439,7 +3562,7 @@
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75">
+    <row r="23" spans="1:15" ht="17.399999999999999">
       <c r="A23" s="74"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -3473,7 +3596,7 @@
       <c r="N24" s="74"/>
       <c r="O24" s="74"/>
     </row>
-    <row r="25" spans="1:15" ht="18.75">
+    <row r="25" spans="1:15" ht="17.399999999999999">
       <c r="A25" s="74"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -3490,7 +3613,7 @@
       <c r="N25" s="74"/>
       <c r="O25" s="74"/>
     </row>
-    <row r="26" spans="1:15" ht="18.75">
+    <row r="26" spans="1:15" ht="17.399999999999999">
       <c r="A26" s="74"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
@@ -3507,7 +3630,7 @@
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
     </row>
-    <row r="27" spans="1:15" ht="18.75">
+    <row r="27" spans="1:15" ht="17.399999999999999">
       <c r="A27" s="74"/>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
@@ -3524,7 +3647,7 @@
       <c r="N27" s="74"/>
       <c r="O27" s="74"/>
     </row>
-    <row r="28" spans="1:15" ht="18.75">
+    <row r="28" spans="1:15" ht="17.399999999999999">
       <c r="A28" s="74"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
@@ -3541,7 +3664,7 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
     </row>
-    <row r="29" spans="1:15" ht="18.75">
+    <row r="29" spans="1:15" ht="17.399999999999999">
       <c r="A29" s="74"/>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
@@ -3558,7 +3681,7 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
     </row>
-    <row r="30" spans="1:15" ht="18.75">
+    <row r="30" spans="1:15" ht="17.399999999999999">
       <c r="A30" s="74"/>
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
@@ -3575,7 +3698,7 @@
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
     </row>
-    <row r="31" spans="1:15" ht="18.75">
+    <row r="31" spans="1:15" ht="17.399999999999999">
       <c r="A31" s="74"/>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
@@ -3592,7 +3715,7 @@
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
     </row>
-    <row r="32" spans="1:15" ht="18.75">
+    <row r="32" spans="1:15" ht="17.399999999999999">
       <c r="A32" s="74"/>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
@@ -3629,19 +3752,19 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="9" style="53"/>
-    <col min="12" max="12" width="14.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="53" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="53"/>
-    <col min="15" max="15" width="35.625" style="53" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" style="53" customWidth="1"/>
     <col min="16" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
@@ -3672,43 +3795,43 @@
         <v>48</v>
       </c>
       <c r="C2" s="56"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="57"/>
@@ -3746,7 +3869,7 @@
       <c r="N5" s="49"/>
       <c r="O5" s="58"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="31.2">
       <c r="A6" s="54" t="s">
         <v>51</v>
       </c>
@@ -4007,7 +4130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="81">
+    <row r="14" spans="1:15" ht="100.8">
       <c r="A14" s="60">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4039,7 +4162,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="49.5">
+    <row r="15" spans="1:15" ht="43.2">
       <c r="A15" s="60">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4127,7 +4250,7 @@
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
     </row>
-    <row r="18" spans="1:15" ht="42.75">
+    <row r="18" spans="1:15" ht="46.8">
       <c r="A18" s="60">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4159,7 +4282,7 @@
       </c>
       <c r="O18" s="67"/>
     </row>
-    <row r="19" spans="1:15" ht="28.5">
+    <row r="19" spans="1:15" ht="62.4">
       <c r="A19" s="60">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4264,17 +4387,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:N16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -4293,7 +4418,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
@@ -4301,41 +4426,41 @@
         <v>27</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="91"/>
@@ -4373,7 +4498,7 @@
       <c r="N5" s="69"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:15" ht="33">
+    <row r="6" spans="1:15" ht="31.2">
       <c r="A6" s="72" t="s">
         <v>24</v>
       </c>
@@ -4482,7 +4607,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:15" ht="27">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4571,7 +4696,7 @@
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="54">
+    <row r="12" spans="1:15" ht="57.6">
       <c r="A12" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4686,7 +4811,7 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:15" ht="40.5">
+    <row r="16" spans="1:15" ht="43.2">
       <c r="A16" s="96">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4718,7 +4843,7 @@
       </c>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="27">
+    <row r="17" spans="1:15" ht="28.8">
       <c r="A17" s="96">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4774,13 +4899,13 @@
       <selection activeCell="F8" sqref="F8:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -4799,7 +4924,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
@@ -4807,41 +4932,41 @@
         <v>27</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="91"/>
@@ -4879,7 +5004,7 @@
       <c r="N5" s="69"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:15" ht="33">
+    <row r="6" spans="1:15" ht="31.2">
       <c r="A6" s="72" t="s">
         <v>24</v>
       </c>
@@ -5104,7 +5229,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:15" ht="40.5">
+    <row r="13" spans="1:15" ht="43.2">
       <c r="A13" s="96">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5136,7 +5261,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="27">
+    <row r="14" spans="1:15" ht="28.8">
       <c r="A14" s="96">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5183,4 +5308,797 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="71"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.2" customHeight="1">
+      <c r="A6" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="36">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="36">
+        <v>11</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="36">
+        <f t="shared" ref="A8:A11" si="0">ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="36">
+        <v>200</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="36">
+        <v>500</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="28.8">
+      <c r="A10" s="36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="36">
+        <v>4</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36">
+        <v>0</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.8">
+      <c r="A11" s="36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="数据表一览!R1C1" display="返回一览表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="53" customFormat="1" ht="17.399999999999999">
+      <c r="A1" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+    </row>
+    <row r="2" spans="1:15" s="53" customFormat="1" ht="17.399999999999999">
+      <c r="A2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="71"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.2">
+      <c r="A6" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="36">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="36">
+        <v>11</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="36">
+        <f t="shared" ref="A8:A15" si="0">ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="36">
+        <v>200</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="36">
+        <v>500</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="28.8">
+      <c r="A10" s="36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="36">
+        <v>500</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="73"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="36">
+        <v>500</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="73"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="36">
+        <v>500</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="73"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="36">
+        <v>11</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" ht="43.2">
+      <c r="A14" s="36">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" ht="28.8">
+      <c r="A15" s="36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="36">
+        <v>4</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="数据表一览!A1" display="返回一览表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>